--- a/CompCars_Original/ResNet/wronglyClassifications/Data_Full_gradCAM++_ResNet_CompCars_Original_ocrnet_hr48_carparts_noflip_wrongClassified_21_08_2022.xlsx
+++ b/CompCars_Original/ResNet/wronglyClassifications/Data_Full_gradCAM++_ResNet_CompCars_Original_ocrnet_hr48_carparts_noflip_wrongClassified_21_08_2022.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,445 +436,507 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>segments</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>PercActivationsOriginal</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>PercActivationsCorrect</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>PercActivationsIncorrect</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>PercActivationsCorrected</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>PercActivationsFixed</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>background</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="C2" t="n">
         <v>0.2231161235583931</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>0.222326437641486</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>0.2915954003396419</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.2934326521963094</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>0.2231370687531889</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>back_bumper</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="C3" t="n">
         <v>0.006805558798218177</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>0.006807234367844064</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>0.006660258250595297</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.006653195864259071</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>0.006805478285001121</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>back_glass</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="C4" t="n">
         <v>0.01520717738003744</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>0.01519348061084805</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>0.01639492155559757</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.01795023793926201</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>0.01522490843008745</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>back_left_door</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="C5" t="n">
         <v>0.004756250798306102</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>0.0047591400709565</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>0.004505701437747004</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.004452535759012554</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>0.004755644694415927</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>back_left_light</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="C6" t="n">
         <v>0.005122632528347779</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>0.005126749159759768</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>0.004765650168865243</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.004705076412332902</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>0.005121941970259365</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>back_right_door</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="C7" t="n">
         <v>0.006458663743031988</v>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>0.006462639612131281</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>0.006113887883836206</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.0060173698199588</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>0.006457563409595455</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>back_right_light</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="C8" t="n">
         <v>0.006756861127118816</v>
       </c>
-      <c r="C8" t="n">
+      <c r="D8" t="n">
         <v>0.006763023803718842</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>0.006222451651691309</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.006164124035398424</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>0.00675619617566929</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="inlineStr">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>front_bumper</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="C9" t="n">
         <v>0.3002050655292377</v>
       </c>
-      <c r="C9" t="n">
+      <c r="D9" t="n">
         <v>0.3005371652044734</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>0.2714063430339294</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.268641884708224</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>0.3001735499164341</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>front_glass</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="C10" t="n">
         <v>0.1509817726893183</v>
       </c>
-      <c r="C10" t="n">
+      <c r="D10" t="n">
         <v>0.1512052728821938</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>0.1316004829374071</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.1362999377630044</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>0.1510353478137083</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="inlineStr">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>front_left_door</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="C11" t="n">
         <v>0.002522976566612552</v>
       </c>
-      <c r="C11" t="n">
+      <c r="D11" t="n">
         <v>0.002525310103608692</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>0.002320618993282365</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.002269891568775323</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>0.00252239825951549</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>front_left_light</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="C12" t="n">
         <v>0.02284114148703477</v>
       </c>
-      <c r="C12" t="n">
+      <c r="D12" t="n">
         <v>0.02286160547040223</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>0.02106656408725544</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>0.02051848212301804</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>0.02283489319643521</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="inlineStr">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>front_right_door</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="C13" t="n">
         <v>0.002416563560600044</v>
       </c>
-      <c r="C13" t="n">
+      <c r="D13" t="n">
         <v>0.002419977713973892</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>0.002120498063095725</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>0.002092139466231616</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>0.002416240264513394</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>front_right_light</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="C14" t="n">
         <v>0.01802979508701147</v>
       </c>
-      <c r="C14" t="n">
+      <c r="D14" t="n">
         <v>0.01805147421572964</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>0.01614984379994524</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>0.0156751333515779</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>0.01802438325260424</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="inlineStr">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>hood</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="C15" t="n">
         <v>0.2236735111379495</v>
       </c>
-      <c r="C15" t="n">
+      <c r="D15" t="n">
         <v>0.223937137976795</v>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
         <v>0.2008125548035839</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.1977249299452139</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>0.2236383113345691</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>left_mirror</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="C16" t="n">
         <v>0.003405378043649601</v>
       </c>
-      <c r="C16" t="n">
+      <c r="D16" t="n">
         <v>0.003407459470286901</v>
       </c>
-      <c r="D16" t="n">
+      <c r="E16" t="n">
         <v>0.003224882750845457</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>0.003310246328901778</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>0.003406351212768673</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="inlineStr">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>right_mirror</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="C17" t="n">
         <v>0.002175868887822764</v>
       </c>
-      <c r="C17" t="n">
+      <c r="D17" t="n">
         <v>0.00217796781294931</v>
       </c>
-      <c r="D17" t="n">
+      <c r="E17" t="n">
         <v>0.001993856176684723</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>0.001937454824530792</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>0.002175225896333423</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="inlineStr">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>tailgate</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="C18" t="n">
         <v>0.0002392739411252463</v>
       </c>
-      <c r="C18" t="n">
+      <c r="D18" t="n">
         <v>0.0002403581599825184</v>
       </c>
-      <c r="D18" t="n">
+      <c r="E18" t="n">
         <v>0.0001452536203508788</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>0.0001364928798551057</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
         <v>0.000239174066186721</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="inlineStr">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>trunk</t>
         </is>
       </c>
-      <c r="B19" t="n">
+      <c r="C19" t="n">
         <v>0.005263924890862043</v>
       </c>
-      <c r="C19" t="n">
+      <c r="D19" t="n">
         <v>0.005177436201671704</v>
       </c>
-      <c r="D19" t="n">
+      <c r="E19" t="n">
         <v>0.01276397365545333</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>0.01194112093660499</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
         <v>0.005254544135348286</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>wheel</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="C20" t="n">
         <v>2.146129076458484e-05</v>
       </c>
-      <c r="C20" t="n">
+      <c r="D20" t="n">
         <v>2.013050891390909e-05</v>
       </c>
-      <c r="D20" t="n">
+      <c r="E20" t="n">
         <v>0.0001368628405919342</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>7.70885051988709e-05</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
         <v>2.077984630499243e-05</v>
       </c>
     </row>
